--- a/natmiOut/OldD7/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.11523595268</v>
+        <v>21.39646633333334</v>
       </c>
       <c r="H2">
-        <v>14.11523595268</v>
+        <v>64.18939900000001</v>
       </c>
       <c r="I2">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="J2">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.2284301905887</v>
+        <v>41.30513066666667</v>
       </c>
       <c r="N2">
-        <v>39.2284301905887</v>
+        <v>123.915392</v>
       </c>
       <c r="O2">
-        <v>0.9175064008192254</v>
+        <v>0.9052975942275636</v>
       </c>
       <c r="P2">
-        <v>0.9175064008192254</v>
+        <v>0.9052975942275634</v>
       </c>
       <c r="Q2">
-        <v>553.7185481933952</v>
+        <v>883.7838377032677</v>
       </c>
       <c r="R2">
-        <v>553.7185481933952</v>
+        <v>7954.05453932941</v>
       </c>
       <c r="S2">
-        <v>0.0493468174837708</v>
+        <v>0.06530137951200596</v>
       </c>
       <c r="T2">
-        <v>0.0493468174837708</v>
+        <v>0.06530137951200593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.11523595268</v>
+        <v>21.39646633333334</v>
       </c>
       <c r="H3">
-        <v>14.11523595268</v>
+        <v>64.18939900000001</v>
       </c>
       <c r="I3">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="J3">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.15761619376751</v>
+        <v>1.172896666666667</v>
       </c>
       <c r="N3">
-        <v>1.15761619376751</v>
+        <v>3.51869</v>
       </c>
       <c r="O3">
-        <v>0.02707526817447038</v>
+        <v>0.02570674667948099</v>
       </c>
       <c r="P3">
-        <v>0.02707526817447038</v>
+        <v>0.02570674667948099</v>
       </c>
       <c r="Q3">
-        <v>16.34002571767174</v>
+        <v>25.09584404081223</v>
       </c>
       <c r="R3">
-        <v>16.34002571767174</v>
+        <v>225.8625963673101</v>
       </c>
       <c r="S3">
-        <v>0.001456205990210833</v>
+        <v>0.001854291927471772</v>
       </c>
       <c r="T3">
-        <v>0.001456205990210833</v>
+        <v>0.001854291927471772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.11523595268</v>
+        <v>21.39646633333334</v>
       </c>
       <c r="H4">
-        <v>14.11523595268</v>
+        <v>64.18939900000001</v>
       </c>
       <c r="I4">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="J4">
-        <v>0.05378362204308318</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.36943756165476</v>
+        <v>0.05821433333333333</v>
       </c>
       <c r="N4">
-        <v>2.36943756165476</v>
+        <v>0.174643</v>
       </c>
       <c r="O4">
-        <v>0.05541833100630417</v>
+        <v>0.001275901929509164</v>
       </c>
       <c r="P4">
-        <v>0.05541833100630417</v>
+        <v>0.001275901929509163</v>
       </c>
       <c r="Q4">
-        <v>33.4451702578997</v>
+        <v>1.245581023284111</v>
       </c>
       <c r="R4">
-        <v>33.4451702578997</v>
+        <v>11.210229209557</v>
       </c>
       <c r="S4">
-        <v>0.002980598569101541</v>
+        <v>9.203399705272492E-05</v>
       </c>
       <c r="T4">
-        <v>0.002980598569101541</v>
+        <v>9.203399705272491E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>129.025471824535</v>
+        <v>21.39646633333334</v>
       </c>
       <c r="H5">
-        <v>129.025471824535</v>
+        <v>64.18939900000001</v>
       </c>
       <c r="I5">
-        <v>0.4916288494081959</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="J5">
-        <v>0.4916288494081959</v>
+        <v>0.0721325008796955</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>39.2284301905887</v>
+        <v>3.089783333333333</v>
       </c>
       <c r="N5">
-        <v>39.2284301905887</v>
+        <v>9.269349999999999</v>
       </c>
       <c r="O5">
-        <v>0.9175064008192254</v>
+        <v>0.06771975716344637</v>
       </c>
       <c r="P5">
-        <v>0.9175064008192254</v>
+        <v>0.06771975716344636</v>
       </c>
       <c r="Q5">
-        <v>5061.466714276541</v>
+        <v>66.11044506896111</v>
       </c>
       <c r="R5">
-        <v>5061.466714276541</v>
+        <v>594.99400562065</v>
       </c>
       <c r="S5">
-        <v>0.4510726161594108</v>
+        <v>0.004884795443165061</v>
       </c>
       <c r="T5">
-        <v>0.4510726161594108</v>
+        <v>0.00488479544316506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>129.025471824535</v>
+        <v>130.868154</v>
       </c>
       <c r="H6">
-        <v>129.025471824535</v>
+        <v>392.604462</v>
       </c>
       <c r="I6">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="J6">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.15761619376751</v>
+        <v>41.30513066666667</v>
       </c>
       <c r="N6">
-        <v>1.15761619376751</v>
+        <v>123.915392</v>
       </c>
       <c r="O6">
-        <v>0.02707526817447038</v>
+        <v>0.9052975942275636</v>
       </c>
       <c r="P6">
-        <v>0.02707526817447038</v>
+        <v>0.9052975942275634</v>
       </c>
       <c r="Q6">
-        <v>149.3619755925753</v>
+        <v>5405.526201075457</v>
       </c>
       <c r="R6">
-        <v>149.3619755925753</v>
+        <v>48649.73580967911</v>
       </c>
       <c r="S6">
-        <v>0.01331098294003322</v>
+        <v>0.399405717619648</v>
       </c>
       <c r="T6">
-        <v>0.01331098294003322</v>
+        <v>0.3994057176196479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>129.025471824535</v>
+        <v>130.868154</v>
       </c>
       <c r="H7">
-        <v>129.025471824535</v>
+        <v>392.604462</v>
       </c>
       <c r="I7">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="J7">
-        <v>0.4916288494081959</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.36943756165476</v>
+        <v>1.172896666666667</v>
       </c>
       <c r="N7">
-        <v>2.36943756165476</v>
+        <v>3.51869</v>
       </c>
       <c r="O7">
-        <v>0.05541833100630417</v>
+        <v>0.02570674667948099</v>
       </c>
       <c r="P7">
-        <v>0.05541833100630417</v>
+        <v>0.02570674667948099</v>
       </c>
       <c r="Q7">
-        <v>305.7177993512811</v>
+        <v>153.49482159942</v>
       </c>
       <c r="R7">
-        <v>305.7177993512811</v>
+        <v>1381.45339439478</v>
       </c>
       <c r="S7">
-        <v>0.02724525030875187</v>
+        <v>0.01134148778330201</v>
       </c>
       <c r="T7">
-        <v>0.02724525030875187</v>
+        <v>0.011341487783302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.001530211833</v>
+        <v>130.868154</v>
       </c>
       <c r="H8">
-        <v>65.001530211833</v>
+        <v>392.604462</v>
       </c>
       <c r="I8">
-        <v>0.2476768893453392</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="J8">
-        <v>0.2476768893453392</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>39.2284301905887</v>
+        <v>0.05821433333333333</v>
       </c>
       <c r="N8">
-        <v>39.2284301905887</v>
+        <v>0.174643</v>
       </c>
       <c r="O8">
-        <v>0.9175064008192254</v>
+        <v>0.001275901929509164</v>
       </c>
       <c r="P8">
-        <v>0.9175064008192254</v>
+        <v>0.001275901929509163</v>
       </c>
       <c r="Q8">
-        <v>2549.907990196333</v>
+        <v>7.618402339674001</v>
       </c>
       <c r="R8">
-        <v>2549.907990196333</v>
+        <v>68.565621057066</v>
       </c>
       <c r="S8">
-        <v>0.2272451313093438</v>
+        <v>0.0005629116094169171</v>
       </c>
       <c r="T8">
-        <v>0.2272451313093438</v>
+        <v>0.000562911609416917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.001530211833</v>
+        <v>130.868154</v>
       </c>
       <c r="H9">
-        <v>65.001530211833</v>
+        <v>392.604462</v>
       </c>
       <c r="I9">
-        <v>0.2476768893453392</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="J9">
-        <v>0.2476768893453392</v>
+        <v>0.441187207572817</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.15761619376751</v>
+        <v>3.089783333333333</v>
       </c>
       <c r="N9">
-        <v>1.15761619376751</v>
+        <v>9.269349999999999</v>
       </c>
       <c r="O9">
-        <v>0.02707526817447038</v>
+        <v>0.06771975716344637</v>
       </c>
       <c r="P9">
-        <v>0.02707526817447038</v>
+        <v>0.06771975716344636</v>
       </c>
       <c r="Q9">
-        <v>75.24682399288592</v>
+        <v>404.3542410933</v>
       </c>
       <c r="R9">
-        <v>75.24682399288592</v>
+        <v>3639.1881698397</v>
       </c>
       <c r="S9">
-        <v>0.006705918199643684</v>
+        <v>0.02987709056045018</v>
       </c>
       <c r="T9">
-        <v>0.006705918199643684</v>
+        <v>0.02987709056045017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.001530211833</v>
+        <v>75.02619166666666</v>
       </c>
       <c r="H10">
-        <v>65.001530211833</v>
+        <v>225.078575</v>
       </c>
       <c r="I10">
-        <v>0.2476768893453392</v>
+        <v>0.2529308696158396</v>
       </c>
       <c r="J10">
-        <v>0.2476768893453392</v>
+        <v>0.2529308696158397</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.36943756165476</v>
+        <v>41.30513066666667</v>
       </c>
       <c r="N10">
-        <v>2.36943756165476</v>
+        <v>123.915392</v>
       </c>
       <c r="O10">
-        <v>0.05541833100630417</v>
+        <v>0.9052975942275636</v>
       </c>
       <c r="P10">
-        <v>0.05541833100630417</v>
+        <v>0.9052975942275634</v>
       </c>
       <c r="Q10">
-        <v>154.0170672489538</v>
+        <v>3098.966650214044</v>
       </c>
       <c r="R10">
-        <v>154.0170672489538</v>
+        <v>27890.6998519264</v>
       </c>
       <c r="S10">
-        <v>0.01372583983635178</v>
+        <v>0.2289777077691052</v>
       </c>
       <c r="T10">
-        <v>0.01372583983635178</v>
+        <v>0.2289777077691051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.3026367977977</v>
+        <v>75.02619166666666</v>
       </c>
       <c r="H11">
-        <v>54.3026367977977</v>
+        <v>225.078575</v>
       </c>
       <c r="I11">
-        <v>0.2069106392033816</v>
+        <v>0.2529308696158396</v>
       </c>
       <c r="J11">
-        <v>0.2069106392033816</v>
+        <v>0.2529308696158397</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>39.2284301905887</v>
+        <v>1.172896666666667</v>
       </c>
       <c r="N11">
-        <v>39.2284301905887</v>
+        <v>3.51869</v>
       </c>
       <c r="O11">
-        <v>0.9175064008192254</v>
+        <v>0.02570674667948099</v>
       </c>
       <c r="P11">
-        <v>0.9175064008192254</v>
+        <v>0.02570674667948099</v>
       </c>
       <c r="Q11">
-        <v>2130.2071967873</v>
+        <v>87.99797011852777</v>
       </c>
       <c r="R11">
-        <v>2130.2071967873</v>
+        <v>791.9817310667501</v>
       </c>
       <c r="S11">
-        <v>0.1898418358667</v>
+        <v>0.006502029792635224</v>
       </c>
       <c r="T11">
-        <v>0.1898418358667</v>
+        <v>0.006502029792635225</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.3026367977977</v>
+        <v>75.02619166666666</v>
       </c>
       <c r="H12">
-        <v>54.3026367977977</v>
+        <v>225.078575</v>
       </c>
       <c r="I12">
-        <v>0.2069106392033816</v>
+        <v>0.2529308696158396</v>
       </c>
       <c r="J12">
-        <v>0.2069106392033816</v>
+        <v>0.2529308696158397</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.15761619376751</v>
+        <v>0.05821433333333333</v>
       </c>
       <c r="N12">
-        <v>1.15761619376751</v>
+        <v>0.174643</v>
       </c>
       <c r="O12">
-        <v>0.02707526817447038</v>
+        <v>0.001275901929509164</v>
       </c>
       <c r="P12">
-        <v>0.02707526817447038</v>
+        <v>0.001275901929509163</v>
       </c>
       <c r="Q12">
-        <v>62.86161172140611</v>
+        <v>4.367599730413889</v>
       </c>
       <c r="R12">
-        <v>62.86161172140611</v>
+        <v>39.308397573725</v>
       </c>
       <c r="S12">
-        <v>0.005602161044582641</v>
+        <v>0.0003227149845752804</v>
       </c>
       <c r="T12">
-        <v>0.005602161044582641</v>
+        <v>0.0003227149845752804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.3026367977977</v>
+        <v>75.02619166666666</v>
       </c>
       <c r="H13">
-        <v>54.3026367977977</v>
+        <v>225.078575</v>
       </c>
       <c r="I13">
-        <v>0.2069106392033816</v>
+        <v>0.2529308696158396</v>
       </c>
       <c r="J13">
-        <v>0.2069106392033816</v>
+        <v>0.2529308696158397</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.36943756165476</v>
+        <v>3.089783333333333</v>
       </c>
       <c r="N13">
-        <v>2.36943756165476</v>
+        <v>9.269349999999999</v>
       </c>
       <c r="O13">
-        <v>0.05541833100630417</v>
+        <v>0.06771975716344637</v>
       </c>
       <c r="P13">
-        <v>0.05541833100630417</v>
+        <v>0.06771975716344636</v>
       </c>
       <c r="Q13">
-        <v>128.6667073255978</v>
+        <v>231.8146765751389</v>
       </c>
       <c r="R13">
-        <v>128.6667073255978</v>
+        <v>2086.33208917625</v>
       </c>
       <c r="S13">
-        <v>0.01146664229209898</v>
+        <v>0.01712841706952397</v>
       </c>
       <c r="T13">
-        <v>0.01146664229209898</v>
+        <v>0.01712841706952397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>69.33645133333333</v>
+      </c>
+      <c r="H14">
+        <v>208.009354</v>
+      </c>
+      <c r="I14">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="J14">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>41.30513066666667</v>
+      </c>
+      <c r="N14">
+        <v>123.915392</v>
+      </c>
+      <c r="O14">
+        <v>0.9052975942275636</v>
+      </c>
+      <c r="P14">
+        <v>0.9052975942275634</v>
+      </c>
+      <c r="Q14">
+        <v>2863.951182286308</v>
+      </c>
+      <c r="R14">
+        <v>25775.56064057677</v>
+      </c>
+      <c r="S14">
+        <v>0.2116127893268044</v>
+      </c>
+      <c r="T14">
+        <v>0.2116127893268044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>69.33645133333333</v>
+      </c>
+      <c r="H15">
+        <v>208.009354</v>
+      </c>
+      <c r="I15">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="J15">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.172896666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.51869</v>
+      </c>
+      <c r="O15">
+        <v>0.02570674667948099</v>
+      </c>
+      <c r="P15">
+        <v>0.02570674667948099</v>
+      </c>
+      <c r="Q15">
+        <v>81.32449264736222</v>
+      </c>
+      <c r="R15">
+        <v>731.92043382626</v>
+      </c>
+      <c r="S15">
+        <v>0.006008937176071988</v>
+      </c>
+      <c r="T15">
+        <v>0.006008937176071988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>69.33645133333333</v>
+      </c>
+      <c r="H16">
+        <v>208.009354</v>
+      </c>
+      <c r="I16">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="J16">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05821433333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.174643</v>
+      </c>
+      <c r="O16">
+        <v>0.001275901929509164</v>
+      </c>
+      <c r="P16">
+        <v>0.001275901929509163</v>
+      </c>
+      <c r="Q16">
+        <v>4.036375290069111</v>
+      </c>
+      <c r="R16">
+        <v>36.327377610622</v>
+      </c>
+      <c r="S16">
+        <v>0.000298241338464241</v>
+      </c>
+      <c r="T16">
+        <v>0.0002982413384642409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>69.33645133333333</v>
+      </c>
+      <c r="H17">
+        <v>208.009354</v>
+      </c>
+      <c r="I17">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="J17">
+        <v>0.2337494219316478</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.089783333333333</v>
+      </c>
+      <c r="N17">
+        <v>9.269349999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.06771975716344637</v>
+      </c>
+      <c r="P17">
+        <v>0.06771975716344636</v>
+      </c>
+      <c r="Q17">
+        <v>214.2346117222111</v>
+      </c>
+      <c r="R17">
+        <v>1928.1115054999</v>
+      </c>
+      <c r="S17">
+        <v>0.01582945409030715</v>
+      </c>
+      <c r="T17">
+        <v>0.01582945409030715</v>
       </c>
     </row>
   </sheetData>
